--- a/исследование СПЕКТРОН и ИБГ/спектронус-плюс.xlsx
+++ b/исследование СПЕКТРОН и ИБГ/спектронус-плюс.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="619">
   <si>
     <t>обозначение</t>
   </si>
@@ -1876,6 +1876,9 @@
   </si>
   <si>
     <t>10210003</t>
+  </si>
+  <si>
+    <t>00C</t>
   </si>
 </sst>
 </file>
@@ -2245,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="AJ109" workbookViewId="0">
+      <selection activeCell="BK128" sqref="BK128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18904,7 +18907,7 @@
         <v>39215</v>
       </c>
       <c r="BK123" t="s">
-        <v>490</v>
+        <v>618</v>
       </c>
       <c r="BL123" t="s">
         <v>506</v>

--- a/исследование СПЕКТРОН и ИБГ/спектронус-плюс.xlsx
+++ b/исследование СПЕКТРОН и ИБГ/спектронус-плюс.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python анализ\RTB-job\исследование СПЕКТРОН и ИБГ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python's_project\RTB-job\исследование СПЕКТРОН и ИБГ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BL$123</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="618">
   <si>
     <t>обозначение</t>
   </si>
@@ -1876,9 +1876,6 @@
   </si>
   <si>
     <t>10210003</t>
-  </si>
-  <si>
-    <t>00C</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +1934,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2248,13 +2248,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ109" workbookViewId="0">
-      <selection activeCell="BK128" sqref="BK128"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18906,8 +18909,8 @@
       <c r="BJ123">
         <v>39215</v>
       </c>
-      <c r="BK123" t="s">
-        <v>618</v>
+      <c r="BK123">
+        <v>0</v>
       </c>
       <c r="BL123" t="s">
         <v>506</v>
